--- a/excels/globals.xlsx
+++ b/excels/globals.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>全局配置</t>
   </si>
@@ -43,16 +43,43 @@
     <t>defaultRoundTime</t>
   </si>
   <si>
+    <t>默认每一波时间</t>
+  </si>
+  <si>
     <t>defaultDifficulty</t>
   </si>
   <si>
+    <t>默认难度</t>
+  </si>
+  <si>
     <t>defaultMaxRound</t>
   </si>
   <si>
+    <t>默认最大波次</t>
+  </si>
+  <si>
     <t>defaultChallengTime</t>
   </si>
   <si>
+    <t>默认挑战时间</t>
+  </si>
+  <si>
     <t>defaultMonsterChallengId</t>
+  </si>
+  <si>
+    <t>默认怪物id</t>
+  </si>
+  <si>
+    <t>marketMaxItem</t>
+  </si>
+  <si>
+    <t>装备商店最高等级</t>
+  </si>
+  <si>
+    <t>marketMaxAbility</t>
+  </si>
+  <si>
+    <t>技能商店最高等级</t>
   </si>
 </sst>
 </file>
@@ -674,11 +701,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,16 +1019,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="37.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="37.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1020,44 +1045,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>120</v>
       </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
